--- a/student.xlsx
+++ b/student.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12555"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12555" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data_in" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
   <si>
     <t>1.学员编码(student_info.student_id)</t>
   </si>
@@ -277,10 +277,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>一、新增学员</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>./api/student/create/</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -309,14 +305,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>is_null</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>3. respond</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -326,6 +314,10 @@
   </si>
   <si>
     <t>inserted student id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一、新增学员</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -682,14 +674,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -698,8 +690,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="171450" y="3571875"/>
-          <a:ext cx="2571750" cy="847725"/>
+          <a:off x="171450" y="3552825"/>
+          <a:ext cx="2571750" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1028,7 +1020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5"/>
   <cols>
@@ -1620,44 +1612,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA53"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="2.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="C3" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
-      <c r="B2" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="C3" s="1" t="s">
+    <row r="4" spans="1:23">
+      <c r="B4" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="C5" s="3" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="B4" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="C5" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1675,22 +1667,16 @@
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
-      <c r="X5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-    </row>
-    <row r="6" spans="1:27">
+    </row>
+    <row r="6" spans="1:23">
       <c r="C6" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1708,27 +1694,21 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
-      <c r="X6" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-    </row>
-    <row r="7" spans="1:27">
+    </row>
+    <row r="7" spans="1:23">
       <c r="B7" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="C8" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1747,15 +1727,15 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:23">
       <c r="C9" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1781,7 +1761,7 @@
       <c r="D53" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="8">
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="G8:W8"/>
     <mergeCell ref="C9:F9"/>
@@ -1790,8 +1770,6 @@
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="G5:W5"/>
     <mergeCell ref="G6:W6"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="X6:AA6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
